--- a/public/Plantilla5.xlsx
+++ b/public/Plantilla5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\hg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="download (7)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -42,10 +42,10 @@
     <t>ENE-ABR 2015</t>
   </si>
   <si>
-    <t>Negocios</t>
+    <t>ENE-ABR 2016</t>
   </si>
   <si>
-    <t>ENE-ABR 2016</t>
+    <t>Sistemas</t>
   </si>
 </sst>
 </file>
@@ -855,10 +855,14 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -888,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -906,10 +910,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
       <c r="D3">
         <v>11</v>
